--- a/Prioritized Requirements List.xlsx
+++ b/Prioritized Requirements List.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements List" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +200,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -265,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -303,18 +327,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,7 +372,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -405,23 +447,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -457,23 +482,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -655,8 +663,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +706,7 @@
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -711,7 +719,7 @@
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -724,7 +732,7 @@
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -750,7 +758,7 @@
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -763,7 +771,7 @@
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -776,7 +784,7 @@
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -789,7 +797,7 @@
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -802,7 +810,7 @@
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -815,7 +823,7 @@
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -828,7 +836,7 @@
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -854,7 +862,7 @@
       <c r="A15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -867,7 +875,7 @@
       <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -893,7 +901,7 @@
       <c r="A18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -906,7 +914,7 @@
       <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="10" t="s">
